--- a/results/mp/tinybert/toy-spam/confidence/84/stop-words-topk-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/84/stop-words-topk-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="113">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,223 +46,238 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>crap</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
     <t>disappointed</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>waste</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>returned</t>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>ripped</t>
   </si>
   <si>
     <t>thin</t>
   </si>
   <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>probably</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
     <t>instead</t>
   </si>
   <si>
-    <t>ripped</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>probably</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
     <t>tiny</t>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>guess</t>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>un</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
-    <t>okay</t>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>plastic</t>
   </si>
   <si>
     <t>missing</t>
   </si>
   <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>paint</t>
+    <t>less</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>short</t>
   </si>
   <si>
     <t>di</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>short</t>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>bad</t>
   </si>
   <si>
     <t>fell</t>
   </si>
   <si>
-    <t>light</t>
+    <t>size</t>
+  </si>
+  <si>
+    <t>sound</t>
   </si>
   <si>
     <t>pay</t>
   </si>
   <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
     <t>would</t>
   </si>
   <si>
+    <t>money</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
+    <t>hard</t>
+  </si>
+  <si>
     <t>work</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>money</t>
+    <t>seems</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>nothing</t>
+    <t>box</t>
+  </si>
+  <si>
+    <t>need</t>
   </si>
   <si>
     <t>look</t>
   </si>
   <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>product</t>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>expected</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>buy</t>
   </si>
   <si>
     <t>make</t>
   </si>
   <si>
+    <t>even</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
     <t>much</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
     <t>made</t>
   </si>
   <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
     <t>toy</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>get</t>
+    <t>really</t>
   </si>
   <si>
     <t>bought</t>
@@ -271,21 +286,18 @@
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>enjoyable</t>
-  </si>
-  <si>
     <t>classic</t>
   </si>
   <si>
@@ -301,49 +313,43 @@
     <t>love</t>
   </si>
   <si>
-    <t>pleased</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
     <t>learn</t>
   </si>
   <si>
     <t>christmas</t>
   </si>
   <si>
+    <t>birthday</t>
+  </si>
+  <si>
     <t>enjoy</t>
   </si>
   <si>
     <t>fun</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>playing</t>
   </si>
   <si>
     <t>game</t>
   </si>
   <si>
     <t>family</t>
-  </si>
-  <si>
-    <t>play</t>
   </si>
   <si>
     <t>positive</t>
@@ -704,7 +710,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q78"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -712,10 +718,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -794,16 +800,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K3">
-        <v>0.8</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L3">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="M3">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -815,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -823,13 +829,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8636363636363636</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -841,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K4">
-        <v>0.7857142857142857</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L4">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M4">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -865,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -873,13 +879,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.734375</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="C5">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -891,19 +897,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K5">
-        <v>0.7407407407407407</v>
+        <v>0.8153846153846154</v>
       </c>
       <c r="L5">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="M5">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -915,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -923,37 +929,37 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7323943661971831</v>
+        <v>0.7475728155339806</v>
       </c>
       <c r="C6">
+        <v>154</v>
+      </c>
+      <c r="D6">
+        <v>154</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>52</v>
       </c>
-      <c r="D6">
-        <v>52</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>19</v>
-      </c>
       <c r="J6" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K6">
-        <v>0.7204301075268817</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="L6">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="M6">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -965,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -973,13 +979,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7311827956989247</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="C7">
-        <v>136</v>
+        <v>52</v>
       </c>
       <c r="D7">
-        <v>136</v>
+        <v>52</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -991,19 +997,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="K7">
-        <v>0.6666666666666666</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="L7">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="M7">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1015,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1023,13 +1029,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6959459459459459</v>
+        <v>0.71875</v>
       </c>
       <c r="C8">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="D8">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1041,19 +1047,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K8">
-        <v>0.6226415094339622</v>
+        <v>0.53125</v>
       </c>
       <c r="L8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1065,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1073,13 +1079,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6941747572815534</v>
+        <v>0.6935483870967742</v>
       </c>
       <c r="C9">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="D9">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1091,19 +1097,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="K9">
-        <v>0.515625</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="L9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1115,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1123,13 +1129,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6578947368421053</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1141,19 +1147,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="K10">
-        <v>0.4492753623188406</v>
+        <v>0.3713114754098361</v>
       </c>
       <c r="L10">
-        <v>31</v>
+        <v>453</v>
       </c>
       <c r="M10">
-        <v>31</v>
+        <v>453</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1165,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>38</v>
+        <v>767</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1173,13 +1179,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6551724137931034</v>
+        <v>0.668918918918919</v>
       </c>
       <c r="C11">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1191,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K11">
-        <v>0.3795081967213115</v>
+        <v>0.3247126436781609</v>
       </c>
       <c r="L11">
-        <v>463</v>
+        <v>226</v>
       </c>
       <c r="M11">
-        <v>463</v>
+        <v>227</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1212,10 +1218,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <v>757</v>
+        <v>470</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1223,13 +1229,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6458333333333334</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C12">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D12">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1241,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="K12">
-        <v>0.3256814921090387</v>
+        <v>0.3029045643153527</v>
       </c>
       <c r="L12">
-        <v>227</v>
+        <v>146</v>
       </c>
       <c r="M12">
-        <v>227</v>
+        <v>146</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1265,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>470</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1273,13 +1279,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5925925925925926</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1291,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K13">
-        <v>0.3018867924528302</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="L13">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M13">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1315,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>37</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1323,13 +1329,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5636363636363636</v>
+        <v>0.6050420168067226</v>
       </c>
       <c r="C14">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="D14">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1341,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K14">
-        <v>0.2966804979253112</v>
+        <v>0.2171253822629969</v>
       </c>
       <c r="L14">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="M14">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1365,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>339</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1373,13 +1379,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5526315789473685</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C15">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1391,19 +1397,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="K15">
-        <v>0.2583333333333334</v>
+        <v>0.2048192771084337</v>
       </c>
       <c r="L15">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M15">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1415,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>89</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1423,13 +1429,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5476190476190477</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="C16">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D16">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1441,19 +1447,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K16">
-        <v>0.2349397590361446</v>
+        <v>0.201058201058201</v>
       </c>
       <c r="L16">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M16">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1465,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>127</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1473,13 +1479,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5462184873949579</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="C17">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="D17">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1491,19 +1497,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="K17">
-        <v>0.1926605504587156</v>
+        <v>0.1484375</v>
       </c>
       <c r="L17">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="M17">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1515,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>264</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1523,13 +1529,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5428571428571428</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C18">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D18">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1541,19 +1547,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="K18">
-        <v>0.164021164021164</v>
+        <v>0.1285140562248996</v>
       </c>
       <c r="L18">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M18">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1565,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>158</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1573,13 +1579,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5304347826086957</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="C19">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D19">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1591,19 +1597,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="K19">
-        <v>0.126984126984127</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="L19">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M19">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1615,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1623,13 +1629,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5185185185185185</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="C20">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D20">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1641,19 +1647,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="K20">
-        <v>0.125</v>
+        <v>0.1182795698924731</v>
       </c>
       <c r="L20">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="M20">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1665,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>112</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1673,13 +1679,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5180722891566265</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="C21">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="D21">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1691,19 +1697,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K21">
-        <v>0.1164658634538153</v>
+        <v>0.1156879929886065</v>
       </c>
       <c r="L21">
-        <v>29</v>
+        <v>132</v>
       </c>
       <c r="M21">
-        <v>29</v>
+        <v>132</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1715,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>220</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1723,13 +1729,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C22">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1741,19 +1747,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="K22">
-        <v>0.1129032258064516</v>
+        <v>0.04938271604938271</v>
       </c>
       <c r="L22">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M22">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1765,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>165</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1773,13 +1779,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4888888888888889</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D23">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1791,31 +1797,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="K23">
-        <v>0.1086765994741455</v>
+        <v>0.04808317089018843</v>
       </c>
       <c r="L23">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="M23">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>1017</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1823,13 +1829,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4857142857142857</v>
+        <v>0.4651162790697674</v>
       </c>
       <c r="C24">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D24">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1841,19 +1847,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="K24">
-        <v>0.1048951048951049</v>
+        <v>0.04456824512534819</v>
       </c>
       <c r="L24">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M24">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1865,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>128</v>
+        <v>343</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1873,13 +1879,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4488188976377953</v>
+        <v>0.4578313253012048</v>
       </c>
       <c r="C25">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D25">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1891,31 +1897,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>70</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K25">
-        <v>0.06943543153796236</v>
-      </c>
-      <c r="L25">
-        <v>107</v>
-      </c>
-      <c r="M25">
-        <v>107</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>1434</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1923,13 +1905,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4157303370786517</v>
+        <v>0.4421052631578947</v>
       </c>
       <c r="C26">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D26">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1941,31 +1923,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>52</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K26">
-        <v>0.05571030640668524</v>
-      </c>
-      <c r="L26">
-        <v>20</v>
-      </c>
-      <c r="M26">
-        <v>20</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>339</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1973,13 +1931,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4</v>
+        <v>0.4330708661417323</v>
       </c>
       <c r="C27">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D27">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1991,31 +1949,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>57</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K27">
-        <v>0.02136181575433912</v>
-      </c>
-      <c r="L27">
-        <v>16</v>
-      </c>
-      <c r="M27">
-        <v>19</v>
-      </c>
-      <c r="N27">
-        <v>0.84</v>
-      </c>
-      <c r="O27">
-        <v>0.16</v>
-      </c>
-      <c r="P27" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q27">
-        <v>733</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2023,13 +1957,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3809523809523809</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="C28">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D28">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2041,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2049,13 +1983,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.359375</v>
+        <v>0.4044943820224719</v>
       </c>
       <c r="C29">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D29">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2067,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2075,13 +2009,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.359375</v>
+        <v>0.3833333333333334</v>
       </c>
       <c r="C30">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D30">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2093,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>82</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2101,13 +2035,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.35</v>
+        <v>0.3762376237623762</v>
       </c>
       <c r="C31">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="D31">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2119,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>39</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2127,13 +2061,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3465346534653465</v>
+        <v>0.375</v>
       </c>
       <c r="C32">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="D32">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2145,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>132</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2153,13 +2087,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3448275862068966</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C33">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D33">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2171,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2179,13 +2113,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3333333333333333</v>
+        <v>0.3317535545023697</v>
       </c>
       <c r="C34">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D34">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2197,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>36</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2205,13 +2139,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3270142180094787</v>
+        <v>0.3278688524590164</v>
       </c>
       <c r="C35">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="D35">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2223,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>142</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2231,13 +2165,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3265306122448979</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C36">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D36">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2249,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>33</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2257,13 +2191,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3090909090909091</v>
+        <v>0.3061224489795918</v>
       </c>
       <c r="C37">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D37">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2275,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2283,13 +2217,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2857142857142857</v>
+        <v>0.296875</v>
       </c>
       <c r="C38">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D38">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2301,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2309,13 +2243,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2857142857142857</v>
+        <v>0.2959183673469388</v>
       </c>
       <c r="C39">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D39">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2327,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>45</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2335,13 +2269,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2686567164179104</v>
+        <v>0.2835820895522388</v>
       </c>
       <c r="C40">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D40">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2353,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2361,13 +2295,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2564102564102564</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C41">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D41">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2379,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>87</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2387,13 +2321,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2459016393442623</v>
+        <v>0.2680412371134021</v>
       </c>
       <c r="C42">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="D42">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2405,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>46</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2413,13 +2347,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.2448979591836735</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="C43">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D43">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2431,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>74</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2439,13 +2373,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.2371134020618557</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="C44">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="D44">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2457,7 +2391,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>148</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2465,13 +2399,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.2225519287833828</v>
+        <v>0.2240356083086053</v>
       </c>
       <c r="C45">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D45">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2483,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2491,13 +2425,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.2065217391304348</v>
+        <v>0.2183544303797468</v>
       </c>
       <c r="C46">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D46">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2509,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>219</v>
+        <v>247</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2517,13 +2451,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2056962025316456</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="C47">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D47">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2535,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>251</v>
+        <v>216</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2543,13 +2477,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2</v>
+        <v>0.215</v>
       </c>
       <c r="C48">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D48">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2561,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2569,13 +2503,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1962025316455696</v>
+        <v>0.2088607594936709</v>
       </c>
       <c r="C49">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D49">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2587,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2595,25 +2529,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1873198847262248</v>
+        <v>0.2027027027027027</v>
       </c>
       <c r="C50">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="D50">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="E50">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>282</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2621,13 +2555,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1869158878504673</v>
+        <v>0.1974522292993631</v>
       </c>
       <c r="C51">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D51">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2639,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>174</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2647,13 +2581,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1785714285714286</v>
+        <v>0.1872246696035242</v>
       </c>
       <c r="C52">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="D52">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2665,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>115</v>
+        <v>369</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2673,13 +2607,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.178343949044586</v>
+        <v>0.1758241758241758</v>
       </c>
       <c r="C53">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D53">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2691,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>129</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2699,13 +2633,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1758241758241758</v>
+        <v>0.1657142857142857</v>
       </c>
       <c r="C54">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D54">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2717,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>75</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2725,13 +2659,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.171875</v>
+        <v>0.1649484536082474</v>
       </c>
       <c r="C55">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D55">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2743,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>106</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2751,25 +2685,25 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1682242990654206</v>
+        <v>0.1571428571428571</v>
       </c>
       <c r="C56">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D56">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E56">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>89</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2777,13 +2711,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.1657142857142857</v>
+        <v>0.154639175257732</v>
       </c>
       <c r="C57">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D57">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2795,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>146</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2803,13 +2737,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1610169491525424</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="C58">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D58">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2821,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2829,13 +2763,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1541850220264317</v>
+        <v>0.1385767790262172</v>
       </c>
       <c r="C59">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="D59">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2847,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>384</v>
+        <v>230</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2855,13 +2789,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1397260273972603</v>
+        <v>0.1355932203389831</v>
       </c>
       <c r="C60">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="D60">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2873,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>314</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2881,13 +2815,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.125</v>
+        <v>0.1355140186915888</v>
       </c>
       <c r="C61">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D61">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2899,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>217</v>
+        <v>185</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2907,13 +2841,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1230769230769231</v>
+        <v>0.1350574712643678</v>
       </c>
       <c r="C62">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="D62">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2925,7 +2859,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>114</v>
+        <v>301</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2933,13 +2867,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1147540983606557</v>
+        <v>0.1308900523560209</v>
       </c>
       <c r="C63">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D63">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2951,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2959,7 +2893,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1103896103896104</v>
+        <v>0.1307692307692308</v>
       </c>
       <c r="C64">
         <v>17</v>
@@ -2977,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>137</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2985,25 +2919,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1099476439790576</v>
+        <v>0.1259842519685039</v>
       </c>
       <c r="C65">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D65">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65">
-        <v>170</v>
+        <v>111</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3011,13 +2945,13 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.109375</v>
+        <v>0.1256830601092896</v>
       </c>
       <c r="C66">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D66">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -3029,7 +2963,7 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3037,13 +2971,13 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.09714285714285714</v>
+        <v>0.109375</v>
       </c>
       <c r="C67">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D67">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3055,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>158</v>
+        <v>171</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3063,25 +2997,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.09703947368421052</v>
+        <v>0.1093117408906883</v>
       </c>
       <c r="C68">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="D68">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68">
-        <v>549</v>
+        <v>220</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3089,13 +3023,13 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.0898876404494382</v>
+        <v>0.1041095890410959</v>
       </c>
       <c r="C69">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D69">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -3107,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>243</v>
+        <v>327</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3115,25 +3049,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.0779510022271715</v>
+        <v>0.101063829787234</v>
       </c>
       <c r="C70">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D70">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70">
-        <v>414</v>
+        <v>169</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3141,13 +3075,13 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.075</v>
+        <v>0.09937888198757763</v>
       </c>
       <c r="C71">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D71">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3159,7 +3093,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>259</v>
+        <v>145</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3167,25 +3101,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.07242990654205607</v>
+        <v>0.096045197740113</v>
       </c>
       <c r="C72">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D72">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E72">
-        <v>0.16</v>
+        <v>0.03</v>
       </c>
       <c r="F72">
-        <v>0.84</v>
+        <v>0.97</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
       </c>
       <c r="H72">
-        <v>397</v>
+        <v>320</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3193,25 +3127,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.06478873239436619</v>
+        <v>0.08620689655172414</v>
       </c>
       <c r="C73">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D73">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73">
-        <v>332</v>
+        <v>159</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3219,25 +3153,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.06349206349206349</v>
+        <v>0.075</v>
       </c>
       <c r="C74">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D74">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E74">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>295</v>
+        <v>259</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3245,25 +3179,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.04122137404580153</v>
+        <v>0.07366071428571429</v>
       </c>
       <c r="C75">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D75">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75">
-        <v>628</v>
+        <v>415</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3271,25 +3205,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.03807106598984772</v>
+        <v>0.06930693069306931</v>
       </c>
       <c r="C76">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D76">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E76">
-        <v>0.17</v>
+        <v>0.05</v>
       </c>
       <c r="F76">
-        <v>0.83</v>
+        <v>0.95</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
       </c>
       <c r="H76">
-        <v>758</v>
+        <v>564</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3297,25 +3231,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.03738317757009346</v>
+        <v>0.06338028169014084</v>
       </c>
       <c r="C77">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D77">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="E77">
-        <v>0.06</v>
+        <v>0.23</v>
       </c>
       <c r="F77">
-        <v>0.9399999999999999</v>
+        <v>0.77</v>
       </c>
       <c r="G77" t="b">
         <v>1</v>
       </c>
       <c r="H77">
-        <v>412</v>
+        <v>399</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3323,25 +3257,155 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03187250996015936</v>
+        <v>0.06012658227848101</v>
       </c>
       <c r="C78">
+        <v>19</v>
+      </c>
+      <c r="D78">
+        <v>20</v>
+      </c>
+      <c r="E78">
+        <v>0.05</v>
+      </c>
+      <c r="F78">
+        <v>0.95</v>
+      </c>
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79">
+        <v>0.04441624365482234</v>
+      </c>
+      <c r="C79">
+        <v>35</v>
+      </c>
+      <c r="D79">
+        <v>41</v>
+      </c>
+      <c r="E79">
+        <v>0.15</v>
+      </c>
+      <c r="F79">
+        <v>0.85</v>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80">
+        <v>0.04439252336448598</v>
+      </c>
+      <c r="C80">
+        <v>19</v>
+      </c>
+      <c r="D80">
+        <v>20</v>
+      </c>
+      <c r="E80">
+        <v>0.05</v>
+      </c>
+      <c r="F80">
+        <v>0.95</v>
+      </c>
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81">
+        <v>0.03828483920367534</v>
+      </c>
+      <c r="C81">
+        <v>25</v>
+      </c>
+      <c r="D81">
+        <v>27</v>
+      </c>
+      <c r="E81">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F81">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="G81" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82">
+        <v>0.03211991434689507</v>
+      </c>
+      <c r="C82">
+        <v>15</v>
+      </c>
+      <c r="D82">
+        <v>17</v>
+      </c>
+      <c r="E82">
+        <v>0.12</v>
+      </c>
+      <c r="F82">
+        <v>0.88</v>
+      </c>
+      <c r="G82" t="b">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83">
+        <v>0.02982107355864811</v>
+      </c>
+      <c r="C83">
+        <v>15</v>
+      </c>
+      <c r="D83">
         <v>16</v>
       </c>
-      <c r="D78">
-        <v>18</v>
-      </c>
-      <c r="E78">
-        <v>0.11</v>
-      </c>
-      <c r="F78">
-        <v>0.89</v>
-      </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78">
-        <v>486</v>
+      <c r="E83">
+        <v>0.06</v>
+      </c>
+      <c r="F83">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G83" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>488</v>
       </c>
     </row>
   </sheetData>
